--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3391103.798822649</v>
+        <v>3495283.433273722</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283213</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873978.598983301</v>
+        <v>7873978.598983299</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>22.05816311386935</v>
       </c>
       <c r="F2" t="n">
-        <v>269.7905074560753</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>176.3093444548956</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>76.61653553743663</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>265.9704488802383</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>100.977025580515</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>63.62037276862258</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>30.96371788671191</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>333.369881682013</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.694518105874558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1342,16 +1344,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.5375141868141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>80.71320514461856</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.9491534982824</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>134.5665975534147</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>71.39698738222901</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>1.632620083627877</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>5.623597659136203</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>220.4545102853551</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>95.81917536083746</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,16 +2763,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>93.85094319420044</v>
       </c>
       <c r="T28" t="n">
-        <v>216.8436125514033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634808</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695584</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G31" t="n">
-        <v>121.5943701178331</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856596</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101222</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.026286001645</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>5.623597659124273</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784717</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>113.0992099793339</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E34" t="n">
-        <v>3.458642397732566</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462242</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856596</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101222</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.026286001645</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238283</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444119</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695585</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462242</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>164.8224308749196</v>
+        <v>1.839588425928982</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569579</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819376</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>126.6035148834749</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H40" t="n">
-        <v>21.90286287505461</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922691</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272885</v>
       </c>
       <c r="U43" t="n">
-        <v>174.3163612303127</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>1.619672595752133</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="44">
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576188</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>108.2950343703275</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>208.7327685259489</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1867.116698829639</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1498.154181889227</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D2" t="n">
-        <v>1139.888483282477</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E2" t="n">
-        <v>754.1002306842327</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.256030805451</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1867.116698829639</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X4" t="n">
-        <v>859.0871915800925</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.0871915800925</v>
+        <v>788.7100321364661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838975</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
-        <v>1458.811090838975</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903097</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4646,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>657.620154033273</v>
+        <v>742.724875630924</v>
       </c>
       <c r="C7" t="n">
-        <v>657.620154033273</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D7" t="n">
-        <v>657.620154033273</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>509.7070604508799</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>362.8171129529695</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>195.1142763276885</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W7" t="n">
-        <v>1067.25816976153</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X7" t="n">
-        <v>839.2686188635128</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y7" t="n">
-        <v>839.2686188635128</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1870.656190741331</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1501.69367380092</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1501.69367380092</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1115.905421202675</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>2257.256030805453</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2257.256030805453</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
         <v>529.0179941377679</v>
@@ -4951,13 +4953,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>977.8001241793154</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>977.8001241793154</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>749.810573281298</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.0179941377679</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5018,28 +5020,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075821</v>
@@ -5048,40 +5050,40 @@
         <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516146</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891998</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446605</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.708435085168</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572612</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449254</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E13" t="n">
-        <v>229.7425191625323</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>229.7425191625323</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993916</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058938</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154078</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803939</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961528</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2124.944376414609</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961527</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622705</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246305</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967236</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D19" t="n">
-        <v>551.2636521843879</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>4289.079931298476</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396418</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.7575184984</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.96493935487</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385792</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3060.838905772771</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3658.217393399323</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3206.505799599953</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>3037.569616672046</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>2887.45297725971</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>2739.539883677317</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>2592.649936179407</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2425.453836894287</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430193</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y22" t="n">
-        <v>3388.154264430193</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>2978.613657539999</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>3606.211621094606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>4158.121351333893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4581.744500828961</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2100.27549966854</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1811.200273012738</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1556.515784806851</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499466</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2285.118447313269</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.898662233776</v>
+        <v>2065.51698233621</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.823435577974</v>
+        <v>1776.441755680408</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.823435577974</v>
+        <v>1521.757267474521</v>
       </c>
       <c r="W28" t="n">
-        <v>3643.406265541013</v>
+        <v>1232.340097437561</v>
       </c>
       <c r="X28" t="n">
-        <v>3415.416714642996</v>
+        <v>1004.350546539543</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.624135499466</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611464</v>
@@ -6449,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192525</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075773</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332381</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068017</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191914</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684978</v>
+        <v>904.4616873845529</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1501.840175011103</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2129.438138565708</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565708</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6573,7 +6575,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V30" t="n">
         <v>1781.463605996603</v>
@@ -6582,7 +6584,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.614450297915</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>956.9553291057262</v>
       </c>
       <c r="C31" t="n">
-        <v>803.2707707770323</v>
+        <v>788.019146177819</v>
       </c>
       <c r="D31" t="n">
-        <v>653.1541313646966</v>
+        <v>637.9025067654831</v>
       </c>
       <c r="E31" t="n">
-        <v>505.2410377823035</v>
+        <v>489.9894131830897</v>
       </c>
       <c r="F31" t="n">
-        <v>358.3510902843931</v>
+        <v>343.0994656851791</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000588</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000588</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797719</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.4610805105</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611849</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>1144.284195611849</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>1138.603793935966</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638194282</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111873</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694711</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273912</v>
+        <v>409.1360811687957</v>
       </c>
       <c r="L33" t="n">
-        <v>590.909656468498</v>
+        <v>904.4616873845529</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.840175011103</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565708</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565708</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.2476448606611</v>
+        <v>1098.667160263528</v>
       </c>
       <c r="C34" t="n">
-        <v>785.3114619327542</v>
+        <v>929.7309773356212</v>
       </c>
       <c r="D34" t="n">
-        <v>635.1948225204185</v>
+        <v>779.6143379232852</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429813</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578609</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000587</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797717</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.4610805105</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854697</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625879</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.896109690901</v>
+        <v>1433.70136564881</v>
       </c>
       <c r="Y34" t="n">
-        <v>1135.896109690901</v>
+        <v>1212.90878650528</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362667</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694693</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516146</v>
+        <v>352.5519571452672</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578167</v>
+        <v>949.9304447718173</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132774</v>
+        <v>1577.528408326422</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.041646372061</v>
+        <v>2129.438138565708</v>
       </c>
       <c r="P36" t="n">
-        <v>2356.041646372061</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3175.341129796741</v>
+        <v>1016.580456911442</v>
       </c>
       <c r="C37" t="n">
-        <v>3006.404946868834</v>
+        <v>847.6442739835344</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456499</v>
+        <v>697.5276345711984</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874106</v>
+        <v>549.6145409888051</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376195</v>
+        <v>402.7245934908944</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376195</v>
+        <v>235.5284942057741</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218393</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797717</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570812</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279796</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650998</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="S37" t="n">
-        <v>4457.300144736938</v>
+        <v>2445.104913453052</v>
       </c>
       <c r="T37" t="n">
-        <v>4457.300144736938</v>
+        <v>2225.503448475993</v>
       </c>
       <c r="U37" t="n">
-        <v>4168.224918081136</v>
+        <v>1936.42822182019</v>
       </c>
       <c r="V37" t="n">
-        <v>3913.540429875249</v>
+        <v>1936.42822182019</v>
       </c>
       <c r="W37" t="n">
-        <v>3624.123259838289</v>
+        <v>1647.01105178323</v>
       </c>
       <c r="X37" t="n">
-        <v>3396.133708940271</v>
+        <v>1419.021500885212</v>
       </c>
       <c r="Y37" t="n">
-        <v>3175.341129796741</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,16 +7189,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841084</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998673</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.528408326419</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.528408326419</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>1057.613315601757</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>929.730977335621</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>779.614337923285</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408917</v>
       </c>
       <c r="F40" t="n">
-        <v>198.0274703142549</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G40" t="n">
-        <v>198.0274703142549</v>
+        <v>317.6151975578607</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.043910473545</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>1460.054359575527</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>1239.261780431997</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590561</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590561</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2418.621364762391</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>2913.94697097815</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>3511.325458604702</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>4138.923422159309</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4690.833152398596</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398596</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.6442739835331</v>
+        <v>948.5505208511922</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>779.614337923285</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.614337923285</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408917</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429811</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578607</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1801.383947954638</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V43" t="n">
-        <v>1546.699459748751</v>
+        <v>1686.749820929701</v>
       </c>
       <c r="W43" t="n">
-        <v>1257.28228971179</v>
+        <v>1397.33265089274</v>
       </c>
       <c r="X43" t="n">
-        <v>1029.292738813773</v>
+        <v>1169.343099994723</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>948.5505208511922</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7639,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516146</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167374</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938885</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
   </sheetData>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.48480914828673</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.95754073885411</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.0084629450593</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.8013425629413</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.6711151870877</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>65.72996410388907</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>87.17534280744415</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5618377758850102</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>43.92976817443574</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462242</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>212.9610556929708</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>66.73277020260366</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>142.9753202488366</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856596</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101222</v>
       </c>
       <c r="S37" t="n">
-        <v>16.20385512672493</v>
+        <v>179.186697575716</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>40.64330621515323</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.3918499711693</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>111.8681131589314</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>250.5179707280761</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>38.13892827624167</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>77.79022981064213</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445011</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445012</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445012</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244622</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132559</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132559</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-8.391670585798705e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.19742923945887e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,19 +26420,19 @@
         <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683032</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26439,25 +26441,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.8641468302</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683032</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683036</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683031</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26497,10 +26499,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26509,7 +26511,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827051</v>
+        <v>-769398.9480827053</v>
       </c>
       <c r="C6" t="n">
+        <v>559345.797644887</v>
+      </c>
+      <c r="D6" t="n">
         <v>559345.7976448871</v>
       </c>
-      <c r="D6" t="n">
-        <v>559345.7976448874</v>
-      </c>
       <c r="E6" t="n">
-        <v>307078.7489351621</v>
+        <v>307078.7489351627</v>
       </c>
       <c r="F6" t="n">
+        <v>632491.2107425176</v>
+      </c>
+      <c r="G6" t="n">
+        <v>632491.2107425176</v>
+      </c>
+      <c r="H6" t="n">
+        <v>632491.2107425177</v>
+      </c>
+      <c r="I6" t="n">
+        <v>632491.2107425176</v>
+      </c>
+      <c r="J6" t="n">
+        <v>414960.00834524</v>
+      </c>
+      <c r="K6" t="n">
+        <v>632491.2107425209</v>
+      </c>
+      <c r="L6" t="n">
+        <v>632491.2107425184</v>
+      </c>
+      <c r="M6" t="n">
+        <v>547436.1828070068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>632491.2107425157</v>
+      </c>
+      <c r="O6" t="n">
         <v>632491.2107425178</v>
       </c>
-      <c r="G6" t="n">
-        <v>632491.210742518</v>
-      </c>
-      <c r="H6" t="n">
-        <v>632491.2107425176</v>
-      </c>
-      <c r="I6" t="n">
-        <v>632491.2107425178</v>
-      </c>
-      <c r="J6" t="n">
-        <v>414960.0083452401</v>
-      </c>
-      <c r="K6" t="n">
-        <v>632491.2107425178</v>
-      </c>
-      <c r="L6" t="n">
-        <v>632491.210742518</v>
-      </c>
-      <c r="M6" t="n">
-        <v>547436.1828070059</v>
-      </c>
-      <c r="N6" t="n">
-        <v>632491.2107425182</v>
-      </c>
-      <c r="O6" t="n">
-        <v>632491.2107425182</v>
-      </c>
       <c r="P6" t="n">
-        <v>632491.2107425181</v>
+        <v>632491.2107425177</v>
       </c>
     </row>
   </sheetData>
@@ -26762,13 +26764,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="N3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-2.290102899694637e-12</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>359.8722069583924</v>
       </c>
       <c r="F2" t="n">
-        <v>137.0855382856362</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>49.40031093414154</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>141.9681178146582</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>88.71259274044462</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>268.754075097954</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>103.6264483300052</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>113.7912970276089</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>73.50616405969839</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.543420550179</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>96.60012913701394</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>205.8097931919725</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29730,13 +29732,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-2.023768704125867e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30156,61 +30158,61 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-3.920701680961135e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30627,64 +30629,64 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.999187766240213e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-2.48044009574435e-13</v>
       </c>
     </row>
     <row r="44">
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>708.938548003214</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>744.5154887882959</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>528.6300513467547</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32488,7 +32490,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
@@ -32549,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>616.9033572954382</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,19 +32785,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.1625787491741</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33023,25 +33025,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262132</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>620.0899880277141</v>
       </c>
       <c r="M30" t="n">
-        <v>660.0558748011979</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067402</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226659</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N33" t="n">
-        <v>251.8861049150239</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669371</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963342</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437227</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q36" t="n">
-        <v>301.9817606876383</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>381.6404378718153</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817582</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>324.9782573297426</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578885</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>566.8045140811956</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>602.3814548662775</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>397.2883392634214</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36136,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,22 +36208,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>485.5616452121049</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>73.1808046631526</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>481.5356082478398</v>
       </c>
       <c r="M30" t="n">
-        <v>517.9218408791795</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295272</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191303</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899063</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060443</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236334274</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>318.5044627483069</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N33" t="n">
-        <v>120.5443928316906</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295272</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191303</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899063</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060443</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924875</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>261.34878191646</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992783</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.9999866016168</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295272</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191303</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001044</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899063</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060443</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998976</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>243.7989988974562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295312</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096347</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998981</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367777</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1368183553836</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295312</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096347</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191312</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998981</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587019</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3495283.433273722</v>
+        <v>3491270.823259728</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283213</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873978.598983299</v>
+        <v>7873978.5989833</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.05816311386935</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>300.3401491857031</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.61653553743663</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>239.9164930890877</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>100.977025580515</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>63.62037276862258</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>75.41231307284821</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>333.369881682013</v>
+        <v>374.0064323118013</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>63.6928597745863</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>80.71320514461856</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.9491534982824</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>20.38427178197973</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G16" t="n">
-        <v>107.317805417867</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>113.9549918517058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>220.4545102853551</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>93.85094319420044</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695584</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229315</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856596</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101222</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>181.026286001645</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.623597659124273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.0992099793339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462242</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856596</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.026286001645</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272885</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444119</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695585</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465694</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229315</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462242</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>1.839588425928982</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819376</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>126.6035148834749</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182126</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922691</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462241</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>174.9868265178721</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229315</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922691</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462241</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012194</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272885</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>1.619672595752133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>208.7327685259489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>607.0615673062264</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4488,16 +4488,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971288</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732708</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>788.7100321364661</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>2201.7190780849</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1832.756561144488</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1474.490862537738</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2080.269059117671</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.129727141859</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.724875630924</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5174547744541</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.724875630924</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1870.656190741331</v>
+        <v>2269.968910186252</v>
       </c>
       <c r="C8" t="n">
-        <v>1501.69367380092</v>
+        <v>1901.00639324584</v>
       </c>
       <c r="D8" t="n">
-        <v>1501.69367380092</v>
+        <v>1542.74069463909</v>
       </c>
       <c r="E8" t="n">
-        <v>1115.905421202675</v>
+        <v>1156.952442040845</v>
       </c>
       <c r="F8" t="n">
         <v>779.1681669784198</v>
@@ -4798,13 +4798,13 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066533</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805453</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="Y8" t="n">
-        <v>2257.256030805453</v>
+        <v>2656.568750250374</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>890.9213886294034</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>721.9852057014965</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>571.8685662891608</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>423.9554727067676</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>277.0655252088573</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>277.0655252088573</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>130.848338426715</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.565228421891</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.575677523874</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.7830983803434</v>
+        <v>1072.569853459643</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380886</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257528</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>572.9069687101817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>426.0170212122713</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4289.079931298476</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>4034.395443092589</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5770,13 +5770,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.779756989948</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650335</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>783.5579673960132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2285.118447313269</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2065.51698233621</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1776.441755680408</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1521.757267474521</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1232.340097437561</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1004.350546539543</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>783.5579673960132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192525</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111696</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075773</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332381</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068017</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694712</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191914</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845529</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.840175011103</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565708</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565708</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6575,7 +6575,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
         <v>1781.463605996603</v>
@@ -6584,7 +6584,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.614450297915</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057262</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>788.019146177819</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654831</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830897</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851791</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000588</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000588</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782951</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797719</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832655</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487559</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.4610805105</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854697</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564881</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611849</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611849</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935966</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638194282</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111873</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075949</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,37 +6764,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687957</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845529</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.840175011103</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565708</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565708</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263528</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356212</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232852</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429813</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578609</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000587</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782951</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797717</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832655</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487559</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.4610805105</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854697</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564881</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564881</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1433.70136564881</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1212.90878650528</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362667</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111699</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452672</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.528408326422</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565708</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911442</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835344</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711984</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888051</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057741</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782951</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797717</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279796</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853354</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580253</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2445.104913453052</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2225.503448475993</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.42822182019</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.42822182019</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.01105178323</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885212</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741681</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.613315601757</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>929.730977335621</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.614337923285</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408917</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578607</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510506</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510506</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.043910473545</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.054359575527</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y40" t="n">
-        <v>1239.261780431997</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="41">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511922</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>779.614337923285</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.614337923285</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408917</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429811</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578607</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487565</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510506</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854703</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1686.749820929701</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1397.33265089274</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1169.343099994723</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>948.5505208511922</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.48480914828673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>145.1398665102891</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G16" t="n">
-        <v>58.20633287440187</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>65.72996410388907</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>87.17534280744415</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462242</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.9610556929708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.73277020260366</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890374</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856596</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>179.186697575716</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>40.64330621515323</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892444</v>
+        <v>111.1976478713721</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>250.5179707280761</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>77.79022981064213</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678094.8240445011</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445012</v>
+        <v>678094.8240445015</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678094.8240445012</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
@@ -26334,25 +26334,25 @@
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132559</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132559</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26392,16 +26392,16 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>-8.391670585798705e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>2.19742923945887e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,19 +26444,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468302</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683035</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683036</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26499,10 +26499,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.9480827053</v>
+        <v>-769398.948082705</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.797644887</v>
+        <v>559345.7976448878</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448871</v>
+        <v>559345.7976448869</v>
       </c>
       <c r="E6" t="n">
-        <v>307078.7489351627</v>
+        <v>306731.3696808058</v>
       </c>
       <c r="F6" t="n">
-        <v>632491.2107425176</v>
+        <v>632143.8314881609</v>
       </c>
       <c r="G6" t="n">
-        <v>632491.2107425176</v>
+        <v>632143.8314881606</v>
       </c>
       <c r="H6" t="n">
-        <v>632491.2107425177</v>
+        <v>632143.8314881609</v>
       </c>
       <c r="I6" t="n">
-        <v>632491.2107425176</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="J6" t="n">
-        <v>414960.00834524</v>
+        <v>414612.6290908831</v>
       </c>
       <c r="K6" t="n">
-        <v>632491.2107425209</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="L6" t="n">
-        <v>632491.2107425184</v>
+        <v>632143.8314881609</v>
       </c>
       <c r="M6" t="n">
-        <v>547436.1828070068</v>
+        <v>547088.803552649</v>
       </c>
       <c r="N6" t="n">
-        <v>632491.2107425157</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="O6" t="n">
-        <v>632491.2107425178</v>
+        <v>632143.8314881608</v>
       </c>
       <c r="P6" t="n">
-        <v>632491.2107425177</v>
+        <v>632143.8314881608</v>
       </c>
     </row>
   </sheetData>
@@ -26764,13 +26764,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.290102899694637e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>359.8722069583924</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>85.89778947035046</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.9681178146582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>142.0138769831741</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>268.754075097954</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>103.6264483300052</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>210.7995251327647</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>73.50616405969839</v>
+        <v>32.86961342991009</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>32.65956063525179</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>205.8097931919725</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29732,13 +29732,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-2.023768704125867e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30158,61 +30158,61 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.920701680961135e-14</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30629,64 +30629,64 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.999187766240213e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-2.48044009574435e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>308.1572428165614</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32019,7 +32019,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32083,25 +32083,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>379.5002789321571</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>448.9178583921318</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,10 +32311,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>454.1257695262132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0899880277141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067402</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>456.3459017226659</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669371</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963342</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214685</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>346.9084613860368</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>165.5609983721169</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>314.9434509778015</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
         <v>632.079992146269</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>311.9917356041949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>481.5356082478398</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295272</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191303</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001044</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899063</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998976</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236334274</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>318.5044627483069</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295272</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191303</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001044</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899063</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998976</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924875</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.34878191646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071383</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295272</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191303</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001044</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899063</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060443</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998976</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>212.9340539717066</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295312</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096347</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899071</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998981</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295312</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096347</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191312</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899071</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998981</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3491270.823259728</v>
+        <v>3493031.353562512</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>259.2912737288245</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>300.3401491857031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>239.9164930890877</v>
+        <v>224.3935191073125</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>75.41231307284821</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>255.4387978729983</v>
       </c>
       <c r="F8" t="n">
-        <v>374.0064323118013</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>63.6928597745863</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>46.32727239260574</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.38427178197973</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>191.5946027345897</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>79.11532312206315</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176154</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375798</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>174.9868265178721</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>785.4918428515814</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>370.4193926965779</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4479,13 +4479,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2201.7190780849</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>1832.756561144488</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="D5" t="n">
-        <v>1474.490862537738</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,13 +4582,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y5" t="n">
-        <v>2588.318918149022</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.837537633435</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.837537633435</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.837537633435</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2269.968910186252</v>
+        <v>1859.132475219473</v>
       </c>
       <c r="C8" t="n">
-        <v>1901.00639324584</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="D8" t="n">
-        <v>1542.74069463909</v>
+        <v>1490.169958279062</v>
       </c>
       <c r="E8" t="n">
-        <v>1156.952442040845</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2656.568750250374</v>
+        <v>2245.732315283595</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>890.9213886294034</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>721.9852057014965</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>571.8685662891608</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>423.9554727067676</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>277.0655252088573</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>277.0655252088573</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>130.848338426715</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1790.668866207025</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X10" t="n">
-        <v>1293.362432603173</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y10" t="n">
-        <v>1072.569853459643</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>550.9217088032285</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>403.0086152208354</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>256.118667722925</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5232,19 +5232,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015258</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>840.8417932021791</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5609,13 +5609,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5664,13 +5664,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1187.98648192797</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>959.9969310299522</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>739.204351886422</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1867.752414038033</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1613.067925832146</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1323.650755795185</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1095.661204897168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.8686257536381</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7593,13 +7593,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1735.314832085242</v>
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.1398665102891</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>94.92839560200127</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.4693302300316</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.845153664064782</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>43.26526345294946</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678094.8240445015</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678094.8240445014</v>
+        <v>678094.8240445013</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678094.8240445013</v>
+        <v>678094.8240445014</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244622</v>
@@ -26325,10 +26325,10 @@
         <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
@@ -26337,7 +26337,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26346,10 +26346,10 @@
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818177</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.89891818169</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818175</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818175</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818173</v>
-      </c>
       <c r="E4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26444,7 +26444,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769398.948082705</v>
+        <v>-769398.9480827053</v>
       </c>
       <c r="C6" t="n">
-        <v>559345.7976448878</v>
+        <v>559345.7976448871</v>
       </c>
       <c r="D6" t="n">
-        <v>559345.7976448869</v>
+        <v>559345.7976448872</v>
       </c>
       <c r="E6" t="n">
-        <v>306731.3696808058</v>
+        <v>307044.0110097267</v>
       </c>
       <c r="F6" t="n">
-        <v>632143.8314881609</v>
+        <v>632456.4728170821</v>
       </c>
       <c r="G6" t="n">
-        <v>632143.8314881606</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="H6" t="n">
-        <v>632143.8314881609</v>
+        <v>632456.472817082</v>
       </c>
       <c r="I6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.472817082</v>
       </c>
       <c r="J6" t="n">
-        <v>414612.6290908831</v>
+        <v>414925.2704198046</v>
       </c>
       <c r="K6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.472817082</v>
       </c>
       <c r="L6" t="n">
-        <v>632143.8314881609</v>
+        <v>632456.4728170823</v>
       </c>
       <c r="M6" t="n">
-        <v>547088.803552649</v>
+        <v>547401.4448815699</v>
       </c>
       <c r="N6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.472817082</v>
       </c>
       <c r="O6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.4728170822</v>
       </c>
       <c r="P6" t="n">
-        <v>632143.8314881608</v>
+        <v>632456.4728170821</v>
       </c>
     </row>
   </sheetData>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>35.31649065849592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.89778947035046</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>142.0138769831741</v>
+        <v>157.5368509649493</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>210.7995251327647</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>126.4915721992635</v>
       </c>
       <c r="F8" t="n">
-        <v>32.86961342991009</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>32.65956063525179</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>143.4417529388361</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.800531213287814e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5002789321571</v>
+        <v>602.8420149078225</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>248.1585668488238</v>
+        <v>471.5003028244892</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
